--- a/trunk/SEP/Database/Excel_Template.xlsx
+++ b/trunk/SEP/Database/Excel_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -36,9 +36,6 @@
     <t>T096656</t>
   </si>
   <si>
-    <t>Somewhere in VietNam</t>
-  </si>
-  <si>
     <t>T096498</t>
   </si>
   <si>
@@ -114,18 +111,9 @@
     <t>Trung Cẩu</t>
   </si>
   <si>
-    <t xml:space="preserve">Trong Giang True </t>
-  </si>
-  <si>
     <t>T033567</t>
   </si>
   <si>
-    <t>Huy Huynh True</t>
-  </si>
-  <si>
-    <t>The Mar</t>
-  </si>
-  <si>
     <t>Trùng CMNR</t>
   </si>
   <si>
@@ -139,6 +127,18 @@
   </si>
   <si>
     <t>29/02/2400</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trọng Giang True </t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Huy Huỳnh True</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -529,137 +529,137 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>33239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1239865423</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>123564897</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>12365478521</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,19 +667,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
